--- a/biology/Médecine/Bulle_(lésion)/Bulle_(lésion).xlsx
+++ b/biology/Médecine/Bulle_(lésion)/Bulle_(lésion).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bulle_(l%C3%A9sion)</t>
+          <t>Bulle_(lésion)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Une bulle est une cavité cutanée de grande taille (supérieure à 5 mm) provoquant un soulèvement épidermique circonscrit contenant une collection de liquide clair, séreux, inflammatoire ou hémorragique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bulle_(l%C3%A9sion)</t>
+          <t>Bulle_(lésion)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lang :latin : bulla : décoration en forme de boule
 Lang :fr_vx : buille : sceau</t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bulle_(l%C3%A9sion)</t>
+          <t>Bulle_(lésion)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Définition de la bulle en dermatologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cette lésion élémentaire de dermatologie est provoquée par un décollement entre les différentes couches de la peau (épiderme, derme, hypoderme).
 On peut mettre en évidence la fragilité de l'épiderme en recherchant le signe de Nikolsky. Ce signe étant caractéristique d'une perte d'adhésion entre les kératinocytes de l'épiderme. Il est absent dans les affections responsables d'un clivage entre derme et épiderme.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bulle_(l%C3%A9sion)</t>
+          <t>Bulle_(lésion)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Localisation des lésions bulleuses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Atteinte muqueuse, œil, bouche, organes génitaux
 Lésions en pleine peau, du visage (péri-orificielle, tempes...), des racines des membres, des extrémités, des zones de frottements, des zones photo-exposées...</t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bulle_(l%C3%A9sion)</t>
+          <t>Bulle_(lésion)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bulles peuvent laisser des cicatrices, des adhérences, notamment les bulles ophtalmiques.
 </t>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bulle_(l%C3%A9sion)</t>
+          <t>Bulle_(lésion)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +661,9 @@
           <t>Diagnostics différentiels</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>les lésions dermatologiques formant une cavité et contenant du liquide qui ne sont pas des bulles :
 la vésicule, plus petite car faisant de 1  à   3 mm de diamètre,
@@ -661,7 +683,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bulle_(l%C3%A9sion)</t>
+          <t>Bulle_(lésion)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,7 +701,9 @@
           <t>Siège histologique du décollement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Pour certains auteurs, la bulle est épidermique ou sous-épidermique (jonction dermo-épidermique), et non dermique ou hypodermique.
 Le siège du décollement est variable :
@@ -697,7 +721,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bulle_(l%C3%A9sion)</t>
+          <t>Bulle_(lésion)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -715,7 +739,9 @@
           <t>Classification suivant le siège histologique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>bulle intra-épidermique :
 par acantholyse :
@@ -741,7 +767,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bulle_(l%C3%A9sion)</t>
+          <t>Bulle_(lésion)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -759,7 +785,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Voir l'article sur les dermatoses bulleuses
 provoquées par un agent externe :
@@ -808,7 +836,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bulle_(l%C3%A9sion)</t>
+          <t>Bulle_(lésion)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -826,7 +854,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>ampoule : quasi-synonyme car désigne aussi une pathologie.
 cloque
@@ -840,7 +870,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bulle_(l%C3%A9sion)</t>
+          <t>Bulle_(lésion)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -858,7 +888,9 @@
           <t>En pneumologie</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve"> définition à vérifier
 bulle pulmonaire : cavité dans un poumon, de taille variable, et dont les parois sont théoriquement recouverte d'épithélium respiratoire. Cette cavité contient de l'air et est visible comme une structure arrondie sur une radiographie de poumon.</t>
